--- a/leetcode刷题2020.xlsx
+++ b/leetcode刷题2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/ws/ybn347pj4fgblpf50ks6yw3r0000gn/T/keynote2pdf/tmp-webpage2excel-cd3473b6-04ff-478a-94cb-e13c66e95f36/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/8g/9v4kdqts3d13kqfl85t1y3qm0000gn/T/keynote2pdf/tmp-webpage2excel-4ae17709-0978-4470-bc6a-f541065395d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE9408B-E8B8-3D4C-B1A7-EF9AF7B04C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE099F1-9B33-B849-84C7-CC44C0DA70EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16460" xr2:uid="{22C136B2-97FE-314C-BD1B-13BF70650BCA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17040" xr2:uid="{22C136B2-97FE-314C-BD1B-13BF70650BCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>题目</t>
   </si>
@@ -132,6 +126,9 @@
     <t>取模</t>
   </si>
   <si>
+    <t>思考清楚再下手，不要因为简单，就胡乱开始</t>
+  </si>
+  <si>
     <t>242. Valid Anagram</t>
   </si>
   <si>
@@ -157,6 +154,108 @@
   </si>
   <si>
     <t>暴力/DP/单调栈/双指针</t>
+  </si>
+  <si>
+    <t>思路转换成代码还是不熟练</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>栈</t>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+  </si>
+  <si>
+    <t>双栈</t>
+  </si>
+  <si>
+    <t>239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>双端队列</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>栈/递归</t>
+  </si>
+  <si>
+    <t>第二周</t>
+  </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>94. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>144. Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>429. N-ary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>队列</t>
+  </si>
+  <si>
+    <t>剑指 Offer 49. 丑数 LCOF</t>
+  </si>
+  <si>
+    <t>动态规划/小顶堆</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>小顶堆/大顶堆</t>
+  </si>
+  <si>
+    <t>API以及Java8特性不够熟练</t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <t>注意理解最后的条件判断</t>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>77. Combinations</t>
+  </si>
+  <si>
+    <t>回溯</t>
+  </si>
+  <si>
+    <t>回溯算法框架</t>
+  </si>
+  <si>
+    <t>46. Permutations</t>
+  </si>
+  <si>
+    <t>47. Permutations II</t>
+  </si>
+  <si>
+    <t>回溯+剪枝</t>
+  </si>
+  <si>
+    <t>要记得先排序</t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>层序遍历</t>
+  </si>
+  <si>
+    <t>substring() 大小写</t>
   </si>
 </sst>
 </file>
@@ -204,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,12 +313,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFADB14"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,9 +369,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91FD39E-07E9-1545-8648-B55FAEA13517}">
-  <dimension ref="A1:AA200"/>
+  <dimension ref="A1:AA203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="45.5" customWidth="1"/>
@@ -667,19 +757,19 @@
         <v>44025</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D14" si="0">C2+1</f>
+        <f t="shared" ref="D2:D30" si="0">C2+1</f>
         <v>44026</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E14" si="1">D2+3</f>
+        <f t="shared" ref="E2:E30" si="1">D2+3</f>
         <v>44029</v>
       </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F14" si="2">E2+7</f>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F30" si="2">E2+7</f>
         <v>44036</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G14" si="3">F2+30</f>
+        <f t="shared" ref="G2:G30" si="3">F2+30</f>
         <v>44066</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -725,7 +815,7 @@
         <f t="shared" si="1"/>
         <v>44029</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" si="2"/>
         <v>44036</v>
       </c>
@@ -776,7 +866,7 @@
         <f t="shared" si="1"/>
         <v>44030</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" si="2"/>
         <v>44037</v>
       </c>
@@ -827,7 +917,7 @@
         <f t="shared" si="1"/>
         <v>44031</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="2"/>
         <v>44038</v>
       </c>
@@ -878,7 +968,7 @@
         <f t="shared" si="1"/>
         <v>44031</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="2"/>
         <v>44038</v>
       </c>
@@ -929,7 +1019,7 @@
         <f t="shared" si="1"/>
         <v>44031</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
         <v>44038</v>
       </c>
@@ -978,7 +1068,7 @@
         <f t="shared" si="1"/>
         <v>44031</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="2"/>
         <v>44038</v>
       </c>
@@ -1029,7 +1119,7 @@
         <f t="shared" si="1"/>
         <v>44031</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="2"/>
         <v>44038</v>
       </c>
@@ -1078,7 +1168,7 @@
         <f t="shared" si="1"/>
         <v>44031</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" si="2"/>
         <v>44038</v>
       </c>
@@ -1086,7 +1176,9 @@
         <f t="shared" si="3"/>
         <v>44068</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1111,10 +1203,10 @@
     </row>
     <row r="11" spans="1:27" ht="24" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4">
         <v>44028</v>
@@ -1123,7 +1215,7 @@
         <f t="shared" si="0"/>
         <v>44029</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>44032</v>
       </c>
@@ -1136,7 +1228,7 @@
         <v>44069</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>12</v>
@@ -1162,7 +1254,7 @@
     </row>
     <row r="12" spans="1:27" ht="24" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
@@ -1174,7 +1266,7 @@
         <f t="shared" si="0"/>
         <v>44030</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>44033</v>
       </c>
@@ -1187,7 +1279,7 @@
         <v>44070</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>12</v>
@@ -1213,10 +1305,10 @@
     </row>
     <row r="13" spans="1:27" ht="24" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4">
         <v>44029</v>
@@ -1225,7 +1317,7 @@
         <f t="shared" si="0"/>
         <v>44030</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>44033</v>
       </c>
@@ -1262,10 +1354,10 @@
     </row>
     <row r="14" spans="1:27" ht="24" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4">
         <v>44030</v>
@@ -1274,7 +1366,7 @@
         <f t="shared" si="0"/>
         <v>44031</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>44034</v>
       </c>
@@ -1286,7 +1378,9 @@
         <f t="shared" si="3"/>
         <v>44071</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1310,15 +1404,35 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15" spans="1:27" ht="24" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>44033</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>44036</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>44043</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>44073</v>
+      </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1339,15 +1453,35 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="1:27" ht="24" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>44033</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>44036</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>44043</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>44073</v>
+      </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1368,15 +1502,35 @@
       <c r="AA16" s="6"/>
     </row>
     <row r="17" spans="1:27" ht="24" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>44033</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>44036</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>44043</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>44073</v>
+      </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1397,15 +1551,35 @@
       <c r="AA17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="24" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>44033</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>44036</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>44043</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>44073</v>
+      </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1426,15 +1600,35 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" ht="24" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>44033</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>44036</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>44043</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>44073</v>
+      </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1455,15 +1649,35 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" ht="24" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>44033</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>44036</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>44043</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="3"/>
+        <v>44073</v>
+      </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1484,15 +1698,35 @@
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" ht="24" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44033</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>44034</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>44037</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>44044</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>44074</v>
+      </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1513,15 +1747,35 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="1:27" ht="24" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44033</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>44034</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>44037</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>44044</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>44074</v>
+      </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1542,15 +1796,35 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" spans="1:27" ht="24" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44034</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>44035</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>44038</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>44045</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>44075</v>
+      </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -1571,15 +1845,37 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="1:27" ht="24" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44034</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>44035</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>44038</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>44045</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="3"/>
+        <v>44075</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1600,15 +1896,37 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25" spans="1:27" ht="24" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44035</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>44036</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>44039</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>44046</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>44076</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1629,15 +1947,35 @@
       <c r="AA25" s="6"/>
     </row>
     <row r="26" spans="1:27" ht="24" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44035</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>44036</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>44039</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>44046</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="3"/>
+        <v>44076</v>
+      </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -1658,15 +1996,37 @@
       <c r="AA26" s="6"/>
     </row>
     <row r="27" spans="1:27" ht="24" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44036</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>44037</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>44040</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>44047</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="3"/>
+        <v>44077</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -1687,15 +2047,35 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="28" spans="1:27" ht="24" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44037</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>44038</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>44041</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>44048</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="3"/>
+        <v>44078</v>
+      </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1716,15 +2096,37 @@
       <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:27" ht="24" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44037</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>44038</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>44041</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>44048</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="3"/>
+        <v>44078</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1745,15 +2147,37 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="24" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="4">
+        <v>44037</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>44038</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>44041</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>44048</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="3"/>
+        <v>44078</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -6703,22 +7127,125 @@
       <c r="Z200" s="6"/>
       <c r="AA200" s="6"/>
     </row>
+    <row r="201" spans="1:27" ht="24" customHeight="1">
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="6"/>
+      <c r="U201" s="6"/>
+      <c r="V201" s="6"/>
+      <c r="W201" s="6"/>
+      <c r="X201" s="6"/>
+      <c r="Y201" s="6"/>
+      <c r="Z201" s="6"/>
+      <c r="AA201" s="6"/>
+    </row>
+    <row r="202" spans="1:27" ht="24" customHeight="1">
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
+      <c r="U202" s="6"/>
+      <c r="V202" s="6"/>
+      <c r="W202" s="6"/>
+      <c r="X202" s="6"/>
+      <c r="Y202" s="6"/>
+      <c r="Z202" s="6"/>
+      <c r="AA202" s="6"/>
+    </row>
+    <row r="203" spans="1:27" ht="24" customHeight="1">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="6"/>
+      <c r="U203" s="6"/>
+      <c r="V203" s="6"/>
+      <c r="W203" s="6"/>
+      <c r="X203" s="6"/>
+      <c r="Y203" s="6"/>
+      <c r="Z203" s="6"/>
+      <c r="AA203" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{BBC21A76-9A15-7E4C-8FF1-5BE7C5623E05}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{52117732-270A-C74F-9450-D89EA6BC856E}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{0F11601F-8228-7140-9C11-CC6E2CBED9E3}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{B1BFA34A-B216-CD40-BE35-000D18B4713F}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{B8FCFDE9-C44F-324D-961D-A3C45BD25449}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{188C8718-F138-3247-8D43-F268253F13D1}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://leetcode-cn.com/problems/merge-sorted-array/" xr:uid="{88DC6365-33B9-1745-8B62-D9FCE1F3648F}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{EB6F572A-DBA8-8A46-96D8-AAABCC970224}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{4B27061C-3677-674C-AAC7-B2EDFB558C31}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/valid-anagram/" xr:uid="{55B135D5-C7A1-3949-ABA4-F39B55EA6A18}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{04DC8E5D-A682-E14A-B782-963948C9F7B7}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{E844B6DC-7DBE-AF47-9DF4-75FC3E9DE3F6}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{5EBFF94B-B09C-F94A-9812-424BE2ABE0CE}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{3D80446E-7476-0E4E-BA62-47880C9B7972}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{E91399DF-F631-5048-B6B3-3AA869415D35}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{550DDB46-D0E0-824B-A4AC-7E8D8E922491}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{3E75C075-9DE7-034C-BCF9-6FAE458DD564}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{7F04A523-AD3C-9342-8A73-DB961A17D6C6}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{F0BCA9E8-82C3-A045-9396-A48E0050D065}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://leetcode-cn.com/problems/merge-sorted-array/" xr:uid="{89D1BB22-5C11-834A-AE50-1754C382F8E6}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{0FC62BE7-F18F-6E45-8235-2B1AA88B802F}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{4F86333D-498E-6241-88E9-3ED1D54614D4}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/valid-anagram/" xr:uid="{238237B9-2CB5-AC47-9AAC-BEABBE747B6C}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{47BA05F5-2A13-E244-B39E-2D70F4C2C58F}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{6476DB0B-EF2D-544A-BE1B-8A3E759DCD94}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{46288F68-C855-4B4D-A9F1-647DA018472F}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{4F33B027-7A7A-6447-B1C7-2D3487E44038}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://leetcode-cn.com/problems/min-stack/" xr:uid="{1EC9E686-2FA4-A643-87CD-9EBF55D95510}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{F51C56A7-EE58-4048-B984-1576EB646E57}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" xr:uid="{A3070DBB-363F-D549-A91C-18BA7F38524E}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/description/" xr:uid="{DE8AB7B5-960F-B44D-BE20-536A00FCF3FB}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{665B1D04-C51F-D24D-910C-EB359214F7B7}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" xr:uid="{163E31D3-36DA-1942-B929-27CC92AC9DE6}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" xr:uid="{B0E8E809-13F1-4043-80F7-11DD4040B5E3}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{0D9E3893-B205-4447-ADF2-28805DD486D7}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{78ED2369-160E-7543-B219-032711FAA439}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{20723AF7-DE01-E044-8B86-8803681346A1}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{31C6F142-31EF-764F-B794-B6F339B32A54}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://leetcode-cn.com/problems/combinations/" xr:uid="{B3FB1531-756E-EB47-9004-6E8956EA90EB}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://leetcode-cn.com/problems/permutations/" xr:uid="{A9AEBEB7-BDBD-3A41-9DC6-D7644AA3EE93}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://leetcode-cn.com/problems/permutations-ii/" xr:uid="{729B1E5C-7132-6C4E-90A0-C37E32995E21}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{C6BEA166-2987-1F4C-80E4-C349640C6F34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode刷题2020.xlsx
+++ b/leetcode刷题2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/8g/9v4kdqts3d13kqfl85t1y3qm0000gn/T/keynote2pdf/tmp-webpage2excel-4ae17709-0978-4470-bc6a-f541065395d3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/x7/m95kzvdj41n0dhhj31bpsmf40000gn/T/keynote2pdf/tmp-webpage2excel-480c674b-defd-44a4-bb3e-d5ba823b2e44/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE099F1-9B33-B849-84C7-CC44C0DA70EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF750CE-C071-E54B-B725-A37BE6CEBF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17040" xr2:uid="{22C136B2-97FE-314C-BD1B-13BF70650BCA}"/>
   </bookViews>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>题目</t>
   </si>
@@ -174,7 +180,7 @@
     <t>239. Sliding Window Maximum</t>
   </si>
   <si>
-    <t>双端队列</t>
+    <t>双端单调队列</t>
   </si>
   <si>
     <t>590. N-ary Tree Postorder Traversal</t>
@@ -256,6 +262,126 @@
   </si>
   <si>
     <t>substring() 大小写</t>
+  </si>
+  <si>
+    <t>169. Majority Element</t>
+  </si>
+  <si>
+    <t>HashMap计数/排序/摩尔投票(同归于尽)</t>
+  </si>
+  <si>
+    <t>第三周</t>
+  </si>
+  <si>
+    <t>860. Lemonade Change</t>
+  </si>
+  <si>
+    <t>情景模拟</t>
+  </si>
+  <si>
+    <t>本身情况有限，直接模拟就好，无需想的太复杂</t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>贪心/动态规划(状态压缩)</t>
+  </si>
+  <si>
+    <t>455. Assign Cookies</t>
+  </si>
+  <si>
+    <t>贪心</t>
+  </si>
+  <si>
+    <t>874. Walking Robot Simulation</t>
+  </si>
+  <si>
+    <t>模拟</t>
+  </si>
+  <si>
+    <t>关键是方向数组的定义和方向的转换</t>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>分治</t>
+  </si>
+  <si>
+    <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>回溯/二进制字典法</t>
+  </si>
+  <si>
+    <t>和组合其实是一类问题</t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>关键是搞清楚选择列表</t>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>注意初始 step 和 结束 step</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <t>BFS/DFS/并查集</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>贪心/倒推法</t>
+  </si>
+  <si>
+    <t>注意后面的位置不可达的情况</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>二分搜索</t>
+  </si>
+  <si>
+    <t>注意考虑[3,1]这种情况</t>
+  </si>
+  <si>
+    <t>74. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>529. Minesweeper</t>
+  </si>
+  <si>
+    <t>注意转 char</t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>递归/二分搜索</t>
+  </si>
+  <si>
+    <t>51. N-Queens</t>
+  </si>
+  <si>
+    <t>45. Jump Game II</t>
+  </si>
+  <si>
+    <t>126. Word Ladder II</t>
+  </si>
+  <si>
+    <t>BFS（双向/单向）+DFS</t>
   </si>
 </sst>
 </file>
@@ -303,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFADB14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +501,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,19 +892,19 @@
         <v>44025</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D30" si="0">C2+1</f>
+        <f t="shared" ref="D2:D48" si="0">C2+1</f>
         <v>44026</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E30" si="1">D2+3</f>
+        <f t="shared" ref="E2:E48" si="1">D2+3</f>
         <v>44029</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F30" si="2">E2+7</f>
+        <f t="shared" ref="F2:F48" si="2">E2+7</f>
         <v>44036</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G30" si="3">F2+30</f>
+        <f t="shared" ref="G2:G48" si="3">F2+30</f>
         <v>44066</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -1219,7 +1354,7 @@
         <f t="shared" si="1"/>
         <v>44032</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="2"/>
         <v>44039</v>
       </c>
@@ -1270,7 +1405,7 @@
         <f t="shared" si="1"/>
         <v>44033</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" si="2"/>
         <v>44040</v>
       </c>
@@ -1321,7 +1456,7 @@
         <f t="shared" si="1"/>
         <v>44033</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="2"/>
         <v>44040</v>
       </c>
@@ -1370,7 +1505,7 @@
         <f t="shared" si="1"/>
         <v>44034</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="2"/>
         <v>44041</v>
       </c>
@@ -1421,7 +1556,7 @@
         <f t="shared" si="1"/>
         <v>44036</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f t="shared" si="2"/>
         <v>44043</v>
       </c>
@@ -1470,7 +1605,7 @@
         <f t="shared" si="1"/>
         <v>44036</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f t="shared" si="2"/>
         <v>44043</v>
       </c>
@@ -1519,7 +1654,7 @@
         <f t="shared" si="1"/>
         <v>44036</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f t="shared" si="2"/>
         <v>44043</v>
       </c>
@@ -1568,7 +1703,7 @@
         <f t="shared" si="1"/>
         <v>44036</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f t="shared" si="2"/>
         <v>44043</v>
       </c>
@@ -1617,7 +1752,7 @@
         <f t="shared" si="1"/>
         <v>44036</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f t="shared" si="2"/>
         <v>44043</v>
       </c>
@@ -1666,7 +1801,7 @@
         <f t="shared" si="1"/>
         <v>44036</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <f t="shared" si="2"/>
         <v>44043</v>
       </c>
@@ -1715,7 +1850,7 @@
         <f t="shared" si="1"/>
         <v>44037</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="2"/>
         <v>44044</v>
       </c>
@@ -1764,7 +1899,7 @@
         <f t="shared" si="1"/>
         <v>44037</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f t="shared" si="2"/>
         <v>44044</v>
       </c>
@@ -1813,7 +1948,7 @@
         <f t="shared" si="1"/>
         <v>44038</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="2"/>
         <v>44045</v>
       </c>
@@ -1862,7 +1997,7 @@
         <f t="shared" si="1"/>
         <v>44038</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f t="shared" si="2"/>
         <v>44045</v>
       </c>
@@ -1909,7 +2044,7 @@
         <f t="shared" si="0"/>
         <v>44036</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f t="shared" si="1"/>
         <v>44039</v>
       </c>
@@ -1960,7 +2095,7 @@
         <f t="shared" si="0"/>
         <v>44036</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="1"/>
         <v>44039</v>
       </c>
@@ -2009,7 +2144,7 @@
         <f t="shared" si="0"/>
         <v>44037</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="1"/>
         <v>44040</v>
       </c>
@@ -2060,7 +2195,7 @@
         <f t="shared" si="0"/>
         <v>44038</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="1"/>
         <v>44041</v>
       </c>
@@ -2109,7 +2244,7 @@
         <f t="shared" si="0"/>
         <v>44038</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="1"/>
         <v>44041</v>
       </c>
@@ -2160,7 +2295,7 @@
         <f t="shared" si="0"/>
         <v>44038</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="1"/>
         <v>44041</v>
       </c>
@@ -2198,15 +2333,35 @@
       <c r="AA30" s="6"/>
     </row>
     <row r="31" spans="1:27" ht="24" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44038</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>44039</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>44042</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>44049</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="3"/>
+        <v>44079</v>
+      </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -2227,15 +2382,37 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:27" ht="24" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>44040</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>44043</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>44050</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="3"/>
+        <v>44080</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2256,15 +2433,35 @@
       <c r="AA32" s="6"/>
     </row>
     <row r="33" spans="1:27" ht="24" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>44040</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>44043</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="2"/>
+        <v>44050</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="3"/>
+        <v>44080</v>
+      </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -2285,15 +2482,35 @@
       <c r="AA33" s="6"/>
     </row>
     <row r="34" spans="1:27" ht="24" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>44040</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>44043</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="2"/>
+        <v>44050</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="3"/>
+        <v>44080</v>
+      </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -2314,15 +2531,37 @@
       <c r="AA34" s="6"/>
     </row>
     <row r="35" spans="1:27" ht="24" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="A35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44040</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>44041</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
+        <v>44044</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="2"/>
+        <v>44051</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="3"/>
+        <v>44081</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -2343,15 +2582,35 @@
       <c r="AA35" s="6"/>
     </row>
     <row r="36" spans="1:27" ht="24" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="4">
+        <v>44040</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>44041</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
+        <v>44044</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="2"/>
+        <v>44051</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="3"/>
+        <v>44081</v>
+      </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -2372,15 +2631,37 @@
       <c r="AA36" s="6"/>
     </row>
     <row r="37" spans="1:27" ht="24" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44040</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>44041</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
+        <v>44044</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="2"/>
+        <v>44051</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="3"/>
+        <v>44081</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -2401,15 +2682,37 @@
       <c r="AA37" s="6"/>
     </row>
     <row r="38" spans="1:27" ht="24" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="A38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44040</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>44041</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>44044</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="2"/>
+        <v>44051</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="3"/>
+        <v>44081</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -2430,15 +2733,37 @@
       <c r="AA38" s="6"/>
     </row>
     <row r="39" spans="1:27" ht="24" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="A39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44040</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>44041</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
+        <v>44044</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="2"/>
+        <v>44051</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="3"/>
+        <v>44081</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -2459,15 +2784,35 @@
       <c r="AA39" s="6"/>
     </row>
     <row r="40" spans="1:27" ht="24" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="4">
+        <v>44041</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>44042</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
+        <v>44045</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="2"/>
+        <v>44052</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="3"/>
+        <v>44082</v>
+      </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -2488,15 +2833,37 @@
       <c r="AA40" s="6"/>
     </row>
     <row r="41" spans="1:27" ht="24" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="A41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="4">
+        <v>44041</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>44042</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
+        <v>44045</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="2"/>
+        <v>44052</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="3"/>
+        <v>44082</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -2517,15 +2884,37 @@
       <c r="AA41" s="6"/>
     </row>
     <row r="42" spans="1:27" ht="24" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="A42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="4">
+        <v>44041</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="0"/>
+        <v>44042</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
+        <v>44045</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="2"/>
+        <v>44052</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="3"/>
+        <v>44082</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -2546,15 +2935,35 @@
       <c r="AA42" s="6"/>
     </row>
     <row r="43" spans="1:27" ht="24" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44042</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>44043</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>44046</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="2"/>
+        <v>44053</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="3"/>
+        <v>44083</v>
+      </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="I43" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -2575,15 +2984,37 @@
       <c r="AA43" s="6"/>
     </row>
     <row r="44" spans="1:27" ht="24" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="A44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="4">
+        <v>44042</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>44043</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>44046</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="2"/>
+        <v>44053</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="3"/>
+        <v>44083</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -2604,15 +3035,35 @@
       <c r="AA44" s="6"/>
     </row>
     <row r="45" spans="1:27" ht="24" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44043</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>44044</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>44047</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="2"/>
+        <v>44054</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="3"/>
+        <v>44084</v>
+      </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="I45" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -2633,15 +3084,35 @@
       <c r="AA45" s="6"/>
     </row>
     <row r="46" spans="1:27" ht="24" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4">
+        <v>44043</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>44044</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>44047</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="2"/>
+        <v>44054</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="3"/>
+        <v>44084</v>
+      </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="I46" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -2662,15 +3133,35 @@
       <c r="AA46" s="6"/>
     </row>
     <row r="47" spans="1:27" ht="24" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="4">
+        <v>44044</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>44045</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>44048</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="2"/>
+        <v>44055</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="3"/>
+        <v>44085</v>
+      </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -2691,15 +3182,35 @@
       <c r="AA47" s="6"/>
     </row>
     <row r="48" spans="1:27" ht="24" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="4">
+        <v>44045</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="0"/>
+        <v>44046</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>44049</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="2"/>
+        <v>44056</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="3"/>
+        <v>44086</v>
+      </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -7217,35 +7728,53 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{3D80446E-7476-0E4E-BA62-47880C9B7972}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{E91399DF-F631-5048-B6B3-3AA869415D35}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{550DDB46-D0E0-824B-A4AC-7E8D8E922491}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{3E75C075-9DE7-034C-BCF9-6FAE458DD564}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{7F04A523-AD3C-9342-8A73-DB961A17D6C6}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{F0BCA9E8-82C3-A045-9396-A48E0050D065}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://leetcode-cn.com/problems/merge-sorted-array/" xr:uid="{89D1BB22-5C11-834A-AE50-1754C382F8E6}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{0FC62BE7-F18F-6E45-8235-2B1AA88B802F}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{4F86333D-498E-6241-88E9-3ED1D54614D4}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/valid-anagram/" xr:uid="{238237B9-2CB5-AC47-9AAC-BEABBE747B6C}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{47BA05F5-2A13-E244-B39E-2D70F4C2C58F}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{6476DB0B-EF2D-544A-BE1B-8A3E759DCD94}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{46288F68-C855-4B4D-A9F1-647DA018472F}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{4F33B027-7A7A-6447-B1C7-2D3487E44038}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://leetcode-cn.com/problems/min-stack/" xr:uid="{1EC9E686-2FA4-A643-87CD-9EBF55D95510}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{F51C56A7-EE58-4048-B984-1576EB646E57}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" xr:uid="{A3070DBB-363F-D549-A91C-18BA7F38524E}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/description/" xr:uid="{DE8AB7B5-960F-B44D-BE20-536A00FCF3FB}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{665B1D04-C51F-D24D-910C-EB359214F7B7}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" xr:uid="{163E31D3-36DA-1942-B929-27CC92AC9DE6}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" xr:uid="{B0E8E809-13F1-4043-80F7-11DD4040B5E3}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{0D9E3893-B205-4447-ADF2-28805DD486D7}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{78ED2369-160E-7543-B219-032711FAA439}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{20723AF7-DE01-E044-8B86-8803681346A1}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{31C6F142-31EF-764F-B794-B6F339B32A54}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://leetcode-cn.com/problems/combinations/" xr:uid="{B3FB1531-756E-EB47-9004-6E8956EA90EB}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://leetcode-cn.com/problems/permutations/" xr:uid="{A9AEBEB7-BDBD-3A41-9DC6-D7644AA3EE93}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://leetcode-cn.com/problems/permutations-ii/" xr:uid="{729B1E5C-7132-6C4E-90A0-C37E32995E21}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{C6BEA166-2987-1F4C-80E4-C349640C6F34}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{A87113AF-FA77-6244-AD51-157D29C26D3A}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{094DB2C1-EC48-9A43-A5A9-EF900FE41DB9}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{21397896-8B01-164E-871E-B7DE5678C07E}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{09CBD9A0-4AC5-D446-9E59-F744AE7FDAFE}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{9EC9CD09-5BD0-E441-872C-F7D4240354DB}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{13CC0A47-0B4E-344C-A801-E89CE07F3C41}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://leetcode-cn.com/problems/merge-sorted-array/" xr:uid="{AF7C281C-83A3-EE49-86D4-9ED9616A01C6}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{026251FE-36B2-8E40-B202-ED6AF2BD703F}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{927D0228-02CF-A54D-95CE-805025CD4F09}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/valid-anagram/" xr:uid="{0D347D96-BD33-7A47-8110-3735DEE071B1}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{0D9D848D-9C20-394B-8161-A8645265E467}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{1F5279DD-CD4F-D347-B344-29D80016063A}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{FD0953DF-2D5C-D141-8E0F-A3CDB77E38B2}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{3769FFB3-7F84-F945-9B29-9F1ACBD79D1A}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://leetcode-cn.com/problems/min-stack/" xr:uid="{9F66DC5C-C64D-9043-AC3A-146F72C6BD39}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{7128002E-B4EF-D84B-87E8-704BF0C8640D}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" xr:uid="{AC4B50C8-A316-AB40-B917-4BD16B53B644}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/description/" xr:uid="{E65511C5-B087-794A-BD13-F0B06FDBAE8E}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{71301DDD-0E27-644C-BB75-0DBC3D6E5446}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" xr:uid="{05DE9802-04ED-2A46-B78D-413A3E1520AB}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" xr:uid="{7DD38033-6993-9846-83EF-E66241310D15}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{647D66F4-83A4-AC49-B987-CC3D30ADA9CB}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{66AF2BD6-448D-4F41-B0FE-57CFCF848AFE}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{B2124926-F5AB-9646-BE41-6AAFACF08DA7}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{ED67AC16-2533-D14B-9E6C-95950886D74B}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://leetcode-cn.com/problems/combinations/" xr:uid="{76773A08-16B6-C642-A706-5967C7898C32}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://leetcode-cn.com/problems/permutations/" xr:uid="{3E439C79-482C-F247-A292-BC26E61DD38A}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://leetcode-cn.com/problems/permutations-ii/" xr:uid="{937CD75A-291D-6747-A20B-6CA1D8511BD3}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{B18E14FE-9090-0543-BBF2-F829CA6ECAA2}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://leetcode-cn.com/problems/majority-element/" xr:uid="{685E5D18-41DD-EA4E-89BF-8194D78CC341}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://leetcode-cn.com/problems/lemonade-change/" xr:uid="{E0ABB841-75DD-9041-AB2A-A508E5E2C56C}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{6BAA8976-63C0-1448-9004-FD280CA86DC5}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://leetcode-cn.com/problems/assign-cookies/description/" xr:uid="{EA284865-CB47-3242-9740-6CE9637D83EC}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://leetcode-cn.com/problems/walking-robot-simulation/" xr:uid="{3FEB288A-D5EB-3D47-A9D2-E17017D722C8}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://leetcode-cn.com/problems/powx-n/" xr:uid="{4271AFFC-F60D-9B48-85C4-CA6E42FFD5AE}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://leetcode-cn.com/problems/subsets/" xr:uid="{3C263796-A492-5C47-9864-E203DFDD7EDB}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/" xr:uid="{83CBFEF2-F5E1-EE44-A170-D3659A3BCD34}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://leetcode-cn.com/problems/word-ladder/" xr:uid="{96DF9B3F-756B-C747-AEF5-88BF01B2CEE1}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{BDA1811A-55F0-7F42-A39F-5E37BF586CB8}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://leetcode-cn.com/problems/jump-game/" xr:uid="{1EA9A753-9E6C-0942-A5AC-1609E79AB35C}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" xr:uid="{3DD74BF4-A034-3A4F-B7A0-D1E068EE08A4}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://leetcode-cn.com/problems/search-a-2d-matrix/" xr:uid="{D3F8C5C4-5D6B-A246-8780-38B825B2A452}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://leetcode-cn.com/problems/minesweeper/" xr:uid="{3F8D64F0-C1AB-8D46-A22D-2B69D2546423}"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{597167CD-4F91-8C47-83EA-31BD33810281}"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://leetcode-cn.com/problems/n-queens/" xr:uid="{41E9B8EC-F4C7-3F4F-8BC7-85C05B186C9B}"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://leetcode-cn.com/problems/jump-game-ii/" xr:uid="{2D1159DB-28E5-0A47-8051-74C0168D9DFF}"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://leetcode-cn.com/problems/word-ladder-ii/" xr:uid="{9283A56E-704D-FA4E-AAFA-6B9634889A12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode刷题2020.xlsx
+++ b/leetcode刷题2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/folders/x7/m95kzvdj41n0dhhj31bpsmf40000gn/T/keynote2pdf/tmp-webpage2excel-480c674b-defd-44a4-bb3e-d5ba823b2e44/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/r5/hn0n_bdx0212dym8jmlgcfzr0000gn/T/keynote2pdf/tmp-webpage2excel-521e507a-cf9f-46fe-97e4-8a42b84b9e9f/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF750CE-C071-E54B-B725-A37BE6CEBF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB46D71-702F-4942-8E6E-D7D1AF0258B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17040" xr2:uid="{22C136B2-97FE-314C-BD1B-13BF70650BCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
   <si>
     <t>题目</t>
   </si>
@@ -382,6 +382,75 @@
   </si>
   <si>
     <t>BFS（双向/单向）+DFS</t>
+  </si>
+  <si>
+    <t>64. Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>第四周(DP)</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>注意 char 类型的比较</t>
+  </si>
+  <si>
+    <t>221. Maximal Square</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>647. Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>dp/manacher</t>
+  </si>
+  <si>
+    <t>32. Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>dp/栈/正向逆向结合</t>
+  </si>
+  <si>
+    <t>72. Edit Distance</t>
+  </si>
+  <si>
+    <t>363. Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>dp/固定左右边界+前缀和</t>
+  </si>
+  <si>
+    <t>403. Frog Jump</t>
+  </si>
+  <si>
+    <t>dp/递归</t>
+  </si>
+  <si>
+    <t>410. Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>dp/二分搜索</t>
+  </si>
+  <si>
+    <t>552. Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>dp(状态机)</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+  </si>
+  <si>
+    <t>312. Burst Balloons</t>
   </si>
 </sst>
 </file>
@@ -892,19 +961,19 @@
         <v>44025</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D48" si="0">C2+1</f>
+        <f t="shared" ref="D2:D61" si="0">C2+1</f>
         <v>44026</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E48" si="1">D2+3</f>
+        <f t="shared" ref="E2:E61" si="1">D2+3</f>
         <v>44029</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F48" si="2">E2+7</f>
+        <f t="shared" ref="F2:F61" si="2">E2+7</f>
         <v>44036</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G48" si="3">F2+30</f>
+        <f t="shared" ref="G2:G61" si="3">F2+30</f>
         <v>44066</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -2048,7 +2117,7 @@
         <f t="shared" si="1"/>
         <v>44039</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f t="shared" si="2"/>
         <v>44046</v>
       </c>
@@ -2099,7 +2168,7 @@
         <f t="shared" si="1"/>
         <v>44039</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <f t="shared" si="2"/>
         <v>44046</v>
       </c>
@@ -2148,7 +2217,7 @@
         <f t="shared" si="1"/>
         <v>44040</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" si="2"/>
         <v>44047</v>
       </c>
@@ -2199,7 +2268,7 @@
         <f t="shared" si="1"/>
         <v>44041</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="2"/>
         <v>44048</v>
       </c>
@@ -2248,7 +2317,7 @@
         <f t="shared" si="1"/>
         <v>44041</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f t="shared" si="2"/>
         <v>44048</v>
       </c>
@@ -2299,7 +2368,7 @@
         <f t="shared" si="1"/>
         <v>44041</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <f t="shared" si="2"/>
         <v>44048</v>
       </c>
@@ -2350,7 +2419,7 @@
         <f t="shared" si="1"/>
         <v>44042</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f t="shared" si="2"/>
         <v>44049</v>
       </c>
@@ -2399,7 +2468,7 @@
         <f t="shared" si="1"/>
         <v>44043</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="2"/>
         <v>44050</v>
       </c>
@@ -2450,7 +2519,7 @@
         <f t="shared" si="1"/>
         <v>44043</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="2"/>
         <v>44050</v>
       </c>
@@ -2499,7 +2568,7 @@
         <f t="shared" si="1"/>
         <v>44043</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="2"/>
         <v>44050</v>
       </c>
@@ -2548,7 +2617,7 @@
         <f t="shared" si="1"/>
         <v>44044</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f t="shared" si="2"/>
         <v>44051</v>
       </c>
@@ -2599,7 +2668,7 @@
         <f t="shared" si="1"/>
         <v>44044</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f t="shared" si="2"/>
         <v>44051</v>
       </c>
@@ -2648,7 +2717,7 @@
         <f t="shared" si="1"/>
         <v>44044</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="2"/>
         <v>44051</v>
       </c>
@@ -2699,7 +2768,7 @@
         <f t="shared" si="1"/>
         <v>44044</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f t="shared" si="2"/>
         <v>44051</v>
       </c>
@@ -2750,7 +2819,7 @@
         <f t="shared" si="1"/>
         <v>44044</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <f t="shared" si="2"/>
         <v>44051</v>
       </c>
@@ -2801,7 +2870,7 @@
         <f t="shared" si="1"/>
         <v>44045</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
@@ -2850,7 +2919,7 @@
         <f t="shared" si="1"/>
         <v>44045</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
@@ -2901,7 +2970,7 @@
         <f t="shared" si="1"/>
         <v>44045</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <f t="shared" si="2"/>
         <v>44052</v>
       </c>
@@ -2948,7 +3017,7 @@
         <f t="shared" si="0"/>
         <v>44043</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
@@ -2997,7 +3066,7 @@
         <f t="shared" si="0"/>
         <v>44043</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
@@ -3048,7 +3117,7 @@
         <f t="shared" si="0"/>
         <v>44044</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
@@ -3097,7 +3166,7 @@
         <f t="shared" si="0"/>
         <v>44044</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
@@ -3146,7 +3215,7 @@
         <f t="shared" si="0"/>
         <v>44045</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
@@ -3191,11 +3260,11 @@
       <c r="C48" s="4">
         <v>44045</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="4">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <f t="shared" si="1"/>
         <v>44049</v>
       </c>
@@ -3231,15 +3300,35 @@
       <c r="AA48" s="6"/>
     </row>
     <row r="49" spans="1:27" ht="24" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="4">
+        <v>44046</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="0"/>
+        <v>44047</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="1"/>
+        <v>44050</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="2"/>
+        <v>44057</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="3"/>
+        <v>44087</v>
+      </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="I49" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -3260,15 +3349,37 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="50" spans="1:27" ht="24" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="A50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="4">
+        <v>44046</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="0"/>
+        <v>44047</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="1"/>
+        <v>44050</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="2"/>
+        <v>44057</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="3"/>
+        <v>44087</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -3289,15 +3400,35 @@
       <c r="AA50" s="6"/>
     </row>
     <row r="51" spans="1:27" ht="24" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44047</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="0"/>
+        <v>44048</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="1"/>
+        <v>44051</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="2"/>
+        <v>44058</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="3"/>
+        <v>44088</v>
+      </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -3318,15 +3449,35 @@
       <c r="AA51" s="6"/>
     </row>
     <row r="52" spans="1:27" ht="24" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="A52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="4">
+        <v>44047</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="0"/>
+        <v>44048</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="1"/>
+        <v>44051</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="2"/>
+        <v>44058</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="3"/>
+        <v>44088</v>
+      </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -3347,15 +3498,35 @@
       <c r="AA52" s="6"/>
     </row>
     <row r="53" spans="1:27" ht="24" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44048</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="0"/>
+        <v>44049</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="1"/>
+        <v>44052</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="2"/>
+        <v>44059</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="3"/>
+        <v>44089</v>
+      </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -3376,15 +3547,35 @@
       <c r="AA53" s="6"/>
     </row>
     <row r="54" spans="1:27" ht="24" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="A54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="4">
+        <v>44049</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="0"/>
+        <v>44050</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="1"/>
+        <v>44053</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="2"/>
+        <v>44060</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="3"/>
+        <v>44090</v>
+      </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -3405,15 +3596,35 @@
       <c r="AA54" s="6"/>
     </row>
     <row r="55" spans="1:27" ht="24" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="A55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44049</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="0"/>
+        <v>44050</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="1"/>
+        <v>44053</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="2"/>
+        <v>44060</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="3"/>
+        <v>44090</v>
+      </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -3434,15 +3645,35 @@
       <c r="AA55" s="6"/>
     </row>
     <row r="56" spans="1:27" ht="24" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="A56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="4">
+        <v>44050</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="0"/>
+        <v>44051</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="1"/>
+        <v>44054</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="2"/>
+        <v>44061</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="3"/>
+        <v>44091</v>
+      </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -3463,15 +3694,35 @@
       <c r="AA56" s="6"/>
     </row>
     <row r="57" spans="1:27" ht="24" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="A57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="4">
+        <v>44050</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="0"/>
+        <v>44051</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="1"/>
+        <v>44054</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="2"/>
+        <v>44061</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="3"/>
+        <v>44091</v>
+      </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="I57" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -3492,15 +3743,35 @@
       <c r="AA57" s="6"/>
     </row>
     <row r="58" spans="1:27" ht="24" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="A58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="4">
+        <v>44050</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="0"/>
+        <v>44051</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="1"/>
+        <v>44054</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="2"/>
+        <v>44061</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="3"/>
+        <v>44091</v>
+      </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="I58" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -3521,15 +3792,35 @@
       <c r="AA58" s="6"/>
     </row>
     <row r="59" spans="1:27" ht="24" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="A59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44051</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="0"/>
+        <v>44052</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="1"/>
+        <v>44055</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="2"/>
+        <v>44062</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="3"/>
+        <v>44092</v>
+      </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -3550,15 +3841,35 @@
       <c r="AA59" s="6"/>
     </row>
     <row r="60" spans="1:27" ht="24" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="A60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44052</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" si="0"/>
+        <v>44053</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="1"/>
+        <v>44056</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="2"/>
+        <v>44063</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="3"/>
+        <v>44093</v>
+      </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="I60" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -3579,15 +3890,33 @@
       <c r="AA60" s="6"/>
     </row>
     <row r="61" spans="1:27" ht="24" customHeight="1">
-      <c r="A61" s="6"/>
+      <c r="A61" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="C61" s="4">
+        <v>44052</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="0"/>
+        <v>44053</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="1"/>
+        <v>44056</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="2"/>
+        <v>44063</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="3"/>
+        <v>44093</v>
+      </c>
       <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="I61" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -7728,53 +8057,66 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{A87113AF-FA77-6244-AD51-157D29C26D3A}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{094DB2C1-EC48-9A43-A5A9-EF900FE41DB9}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{21397896-8B01-164E-871E-B7DE5678C07E}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{09CBD9A0-4AC5-D446-9E59-F744AE7FDAFE}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{9EC9CD09-5BD0-E441-872C-F7D4240354DB}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{13CC0A47-0B4E-344C-A801-E89CE07F3C41}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://leetcode-cn.com/problems/merge-sorted-array/" xr:uid="{AF7C281C-83A3-EE49-86D4-9ED9616A01C6}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{026251FE-36B2-8E40-B202-ED6AF2BD703F}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{927D0228-02CF-A54D-95CE-805025CD4F09}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/valid-anagram/" xr:uid="{0D347D96-BD33-7A47-8110-3735DEE071B1}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{0D9D848D-9C20-394B-8161-A8645265E467}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{1F5279DD-CD4F-D347-B344-29D80016063A}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{FD0953DF-2D5C-D141-8E0F-A3CDB77E38B2}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{3769FFB3-7F84-F945-9B29-9F1ACBD79D1A}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://leetcode-cn.com/problems/min-stack/" xr:uid="{9F66DC5C-C64D-9043-AC3A-146F72C6BD39}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{7128002E-B4EF-D84B-87E8-704BF0C8640D}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" xr:uid="{AC4B50C8-A316-AB40-B917-4BD16B53B644}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/description/" xr:uid="{E65511C5-B087-794A-BD13-F0B06FDBAE8E}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{71301DDD-0E27-644C-BB75-0DBC3D6E5446}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" xr:uid="{05DE9802-04ED-2A46-B78D-413A3E1520AB}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" xr:uid="{7DD38033-6993-9846-83EF-E66241310D15}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{647D66F4-83A4-AC49-B987-CC3D30ADA9CB}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{66AF2BD6-448D-4F41-B0FE-57CFCF848AFE}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{B2124926-F5AB-9646-BE41-6AAFACF08DA7}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{ED67AC16-2533-D14B-9E6C-95950886D74B}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://leetcode-cn.com/problems/combinations/" xr:uid="{76773A08-16B6-C642-A706-5967C7898C32}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://leetcode-cn.com/problems/permutations/" xr:uid="{3E439C79-482C-F247-A292-BC26E61DD38A}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://leetcode-cn.com/problems/permutations-ii/" xr:uid="{937CD75A-291D-6747-A20B-6CA1D8511BD3}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{B18E14FE-9090-0543-BBF2-F829CA6ECAA2}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://leetcode-cn.com/problems/majority-element/" xr:uid="{685E5D18-41DD-EA4E-89BF-8194D78CC341}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://leetcode-cn.com/problems/lemonade-change/" xr:uid="{E0ABB841-75DD-9041-AB2A-A508E5E2C56C}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{6BAA8976-63C0-1448-9004-FD280CA86DC5}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://leetcode-cn.com/problems/assign-cookies/description/" xr:uid="{EA284865-CB47-3242-9740-6CE9637D83EC}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://leetcode-cn.com/problems/walking-robot-simulation/" xr:uid="{3FEB288A-D5EB-3D47-A9D2-E17017D722C8}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://leetcode-cn.com/problems/powx-n/" xr:uid="{4271AFFC-F60D-9B48-85C4-CA6E42FFD5AE}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://leetcode-cn.com/problems/subsets/" xr:uid="{3C263796-A492-5C47-9864-E203DFDD7EDB}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/" xr:uid="{83CBFEF2-F5E1-EE44-A170-D3659A3BCD34}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://leetcode-cn.com/problems/word-ladder/" xr:uid="{96DF9B3F-756B-C747-AEF5-88BF01B2CEE1}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{BDA1811A-55F0-7F42-A39F-5E37BF586CB8}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://leetcode-cn.com/problems/jump-game/" xr:uid="{1EA9A753-9E6C-0942-A5AC-1609E79AB35C}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" xr:uid="{3DD74BF4-A034-3A4F-B7A0-D1E068EE08A4}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://leetcode-cn.com/problems/search-a-2d-matrix/" xr:uid="{D3F8C5C4-5D6B-A246-8780-38B825B2A452}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://leetcode-cn.com/problems/minesweeper/" xr:uid="{3F8D64F0-C1AB-8D46-A22D-2B69D2546423}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{597167CD-4F91-8C47-83EA-31BD33810281}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://leetcode-cn.com/problems/n-queens/" xr:uid="{41E9B8EC-F4C7-3F4F-8BC7-85C05B186C9B}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://leetcode-cn.com/problems/jump-game-ii/" xr:uid="{2D1159DB-28E5-0A47-8051-74C0168D9DFF}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://leetcode-cn.com/problems/word-ladder-ii/" xr:uid="{9283A56E-704D-FA4E-AAFA-6B9634889A12}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{A8ABA3CA-13C6-4B4B-962D-D1820F56FC4C}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{402938AE-F2FE-9F40-A754-47A154B46E58}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{90FB391A-0EC5-ED40-A3CE-39BAB5429666}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{71EBF475-B82F-BB4E-AA75-A594BBB384D2}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{CFFE9C52-DCDD-EE4A-B6BD-ED7D042C4F12}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{E36B026E-EF27-4D42-8473-84C2AA87DC95}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://leetcode-cn.com/problems/merge-sorted-array/" xr:uid="{8A1B51FE-26DD-E346-9E61-482DFC40736C}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{2B07CE11-E8E9-9342-963F-9244A305F5B3}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{E926AD87-25AD-A248-8C00-FE52EEB12936}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/valid-anagram/" xr:uid="{F4AB2D4F-C0F4-D943-9F9D-DF72D2E4093C}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{4874BDE5-D67E-3B43-A3B9-CE05F25D3557}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{A0FF393D-54D8-1543-BEF5-BBF6CF2BF1AD}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{6F057526-D2A1-1946-9A27-1DFDE58AA4F6}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{0775BC90-E79E-C740-950A-103050D6942B}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://leetcode-cn.com/problems/min-stack/" xr:uid="{DA49D2E4-EA5F-F84C-BF41-6E90B6A8C05B}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{65CA5D8D-F7A6-CC4D-9F0E-23EAE3F6F902}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" xr:uid="{8DAD8187-5DCC-934B-A0E9-249A0179CE91}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/description/" xr:uid="{C103127A-0DCC-F945-A49E-6E85C5F45076}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{81DB0BC2-14F5-D74F-BFA6-AE5C01D2F949}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" xr:uid="{02935222-659C-244D-B05F-3391E6BCFF07}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" xr:uid="{D440D460-B982-D14E-8C38-516FE5F92301}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{C22D1ABF-2532-3145-898E-3D4AD6DDFBB0}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{113F71A5-AD81-FE4E-941B-168B31A42AC5}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{06DE6C5D-7A74-944A-ABEB-79BB78110267}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{7ECADA37-AD76-A747-A593-72BFCF94198A}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://leetcode-cn.com/problems/combinations/" xr:uid="{59D618C2-746A-2E4B-B9E9-FE9DA8B7BEE0}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://leetcode-cn.com/problems/permutations/" xr:uid="{887234D0-6830-2445-8451-F8158B73A242}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://leetcode-cn.com/problems/permutations-ii/" xr:uid="{265E65F4-369F-E64A-9FE5-696ACBAE5830}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{16C6FDAD-9E11-0344-9419-1308DBE70694}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://leetcode-cn.com/problems/majority-element/" xr:uid="{1E218B68-1BE8-1048-ADAE-AA38E831AF4A}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://leetcode-cn.com/problems/lemonade-change/" xr:uid="{08BF8474-0890-A64E-B877-2B96F9FDFB5B}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{E9B864B5-4A18-B248-A3D8-D0C1D24D9864}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://leetcode-cn.com/problems/assign-cookies/description/" xr:uid="{BC686761-8ED6-A442-80C7-27B608EF012F}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://leetcode-cn.com/problems/walking-robot-simulation/" xr:uid="{E03E6D74-931A-AF45-BE99-7460E190A694}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://leetcode-cn.com/problems/powx-n/" xr:uid="{78FF0458-A1CB-4449-BAA9-7647907A0A0F}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://leetcode-cn.com/problems/subsets/" xr:uid="{C5992C41-34DE-BD48-A947-B1430E7A6329}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/" xr:uid="{52FBDBE4-B9BB-B44C-A3FC-3736832F6D16}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://leetcode-cn.com/problems/word-ladder/" xr:uid="{FE647CA3-31BF-0845-ADB9-668D17E1027E}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{AF095D86-BDA6-C84E-88A6-5D7C8485984E}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://leetcode-cn.com/problems/jump-game/" xr:uid="{2DAE0899-55D2-964E-937E-A2004F6E8C1A}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" xr:uid="{5523E825-E4C2-EE4F-9370-C0D4F3A30790}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://leetcode-cn.com/problems/search-a-2d-matrix/" xr:uid="{A8444053-6C81-6A48-AE85-A56D4A722E8D}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://leetcode-cn.com/problems/minesweeper/" xr:uid="{DF6DEB83-2DFD-2248-A6C2-17C598598614}"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{080BFAAE-1A04-BB4E-AE94-A6EF2F171322}"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://leetcode-cn.com/problems/n-queens/" xr:uid="{737CBAC2-56AC-1047-999C-1DC088E37223}"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://leetcode-cn.com/problems/jump-game-ii/" xr:uid="{3D1F7EAA-6DB1-394F-9909-3B7A924D99AC}"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://leetcode-cn.com/problems/word-ladder-ii/" xr:uid="{BD5B9A29-5ADE-A840-9D5F-68460B776911}"/>
+    <hyperlink ref="A49" r:id="rId48" display="https://leetcode-cn.com/problems/minimum-path-sum/" xr:uid="{3301DAE5-5A3B-4745-8E7D-3604B29134BB}"/>
+    <hyperlink ref="A50" r:id="rId49" display="https://leetcode-cn.com/problems/decode-ways/" xr:uid="{080CF988-BD01-D643-B9CF-E10F825F2186}"/>
+    <hyperlink ref="A51" r:id="rId50" display="https://leetcode-cn.com/problems/maximal-square/" xr:uid="{730743DA-C9E7-1C40-A72C-C5B602C53EE8}"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://leetcode-cn.com/problems/task-scheduler/" xr:uid="{1BA71792-B504-4C46-AFA2-0BC7F732E798}"/>
+    <hyperlink ref="A53" r:id="rId52" display="https://leetcode-cn.com/problems/palindromic-substrings/" xr:uid="{5E143243-0BCE-ED49-9824-3D7743E486AB}"/>
+    <hyperlink ref="A54" r:id="rId53" display="https://leetcode-cn.com/problems/longest-valid-parentheses/" xr:uid="{6AC6C84E-DF72-974B-BBEB-8ABF219A5B69}"/>
+    <hyperlink ref="A55" r:id="rId54" display="https://leetcode-cn.com/problems/edit-distance/" xr:uid="{EC466391-DF02-E245-ABDE-C762C933B712}"/>
+    <hyperlink ref="A56" r:id="rId55" display="https://leetcode-cn.com/problems/max-sum-of-rectangle-no-larger-than-k/" xr:uid="{68EA33A9-6B4B-0142-B207-E93BC307C4C4}"/>
+    <hyperlink ref="A57" r:id="rId56" display="https://leetcode-cn.com/problems/frog-jump/" xr:uid="{91E8C2E4-1DE2-8544-819E-A54EF24F53CE}"/>
+    <hyperlink ref="A58" r:id="rId57" display="https://leetcode-cn.com/problems/split-array-largest-sum/" xr:uid="{1FBD877B-2B1C-E84D-B782-10642FE46385}"/>
+    <hyperlink ref="A59" r:id="rId58" display="https://leetcode-cn.com/problems/student-attendance-record-ii/" xr:uid="{0B549403-36BD-794A-8DF3-BD7F01D4D87A}"/>
+    <hyperlink ref="A60" r:id="rId59" display="https://leetcode-cn.com/problems/minimum-window-substring/" xr:uid="{C605AD0F-06FA-AE43-B862-5F8FE58BE94A}"/>
+    <hyperlink ref="A61" r:id="rId60" display="https://leetcode-cn.com/problems/burst-balloons/" xr:uid="{95D41F59-560C-D641-A76D-FC2D8B56CBC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode刷题2020.xlsx
+++ b/leetcode刷题2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/r5/hn0n_bdx0212dym8jmlgcfzr0000gn/T/keynote2pdf/tmp-webpage2excel-521e507a-cf9f-46fe-97e4-8a42b84b9e9f/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/2v/qm79wj812j79b2jkfym52ffr0000gn/T/keynote2pdf/tmp-webpage2excel-1998701d-9f51-4ddb-8e97-53f92c42c12e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB46D71-702F-4942-8E6E-D7D1AF0258B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA836AF-6F76-DC44-80CB-8F8C0650A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17040" xr2:uid="{22C136B2-97FE-314C-BD1B-13BF70650BCA}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="164">
   <si>
     <t>题目</t>
   </si>
@@ -438,6 +432,9 @@
     <t>dp/二分搜索</t>
   </si>
   <si>
+    <t>需要多加练习</t>
+  </si>
+  <si>
     <t>552. Student Attendance Record II</t>
   </si>
   <si>
@@ -451,13 +448,82 @@
   </si>
   <si>
     <t>312. Burst Balloons</t>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>第五周</t>
+  </si>
+  <si>
+    <t>37. Sudoku Solver</t>
+  </si>
+  <si>
+    <t>547. Friend Circles</t>
+  </si>
+  <si>
+    <t>并查集</t>
+  </si>
+  <si>
+    <t>191. Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>位运算</t>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
+    <t>190. Reverse Bits</t>
+  </si>
+  <si>
+    <t>52. N-Queens II</t>
+  </si>
+  <si>
+    <t>回溯+位运算</t>
+  </si>
+  <si>
+    <t>70. Climbing Stairs</t>
+  </si>
+  <si>
+    <t>dp/矩阵</t>
+  </si>
+  <si>
+    <t>130. Surrounded Regions</t>
+  </si>
+  <si>
+    <t>并查集/dfs/bfs</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>433. Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t>338. Counting Bits</t>
+  </si>
+  <si>
+    <t>dp+位运算</t>
+  </si>
+  <si>
+    <t>212. Word Search II</t>
+  </si>
+  <si>
+    <t>Trie+DFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,8 +563,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF5222D"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,12 +581,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFADB14"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +639,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91FD39E-07E9-1545-8648-B55FAEA13517}">
-  <dimension ref="A1:AA203"/>
+  <dimension ref="A1:AA202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,19 +1028,19 @@
         <v>44025</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D61" si="0">C2+1</f>
+        <f t="shared" ref="D2:D65" si="0">C2+1</f>
         <v>44026</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E61" si="1">D2+3</f>
+        <f t="shared" ref="E2:E65" si="1">D2+3</f>
         <v>44029</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F61" si="2">E2+7</f>
+        <f t="shared" ref="F2:F65" si="2">E2+7</f>
         <v>44036</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G61" si="3">F2+30</f>
+        <f t="shared" ref="G2:G65" si="3">F2+30</f>
         <v>44066</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -3021,7 +3088,7 @@
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
@@ -3070,7 +3137,7 @@
         <f t="shared" si="1"/>
         <v>44046</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
@@ -3121,7 +3188,7 @@
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <f t="shared" si="2"/>
         <v>44054</v>
       </c>
@@ -3170,7 +3237,7 @@
         <f t="shared" si="1"/>
         <v>44047</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <f t="shared" si="2"/>
         <v>44054</v>
       </c>
@@ -3219,7 +3286,7 @@
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <f t="shared" si="2"/>
         <v>44055</v>
       </c>
@@ -3268,7 +3335,7 @@
         <f t="shared" si="1"/>
         <v>44049</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <f t="shared" si="2"/>
         <v>44056</v>
       </c>
@@ -3317,7 +3384,7 @@
         <f t="shared" si="1"/>
         <v>44050</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
@@ -3366,7 +3433,7 @@
         <f t="shared" si="1"/>
         <v>44050</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
@@ -3417,7 +3484,7 @@
         <f t="shared" si="1"/>
         <v>44051</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <f t="shared" si="2"/>
         <v>44058</v>
       </c>
@@ -3466,7 +3533,7 @@
         <f t="shared" si="1"/>
         <v>44051</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <f t="shared" si="2"/>
         <v>44058</v>
       </c>
@@ -3515,7 +3582,7 @@
         <f t="shared" si="1"/>
         <v>44052</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <f t="shared" si="2"/>
         <v>44059</v>
       </c>
@@ -3560,7 +3627,7 @@
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <f t="shared" si="1"/>
         <v>44053</v>
       </c>
@@ -3609,7 +3676,7 @@
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <f t="shared" si="1"/>
         <v>44053</v>
       </c>
@@ -3658,7 +3725,7 @@
         <f t="shared" si="0"/>
         <v>44051</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <f t="shared" si="1"/>
         <v>44054</v>
       </c>
@@ -3707,7 +3774,7 @@
         <f t="shared" si="0"/>
         <v>44051</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <f t="shared" si="1"/>
         <v>44054</v>
       </c>
@@ -3756,7 +3823,7 @@
         <f t="shared" si="0"/>
         <v>44051</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <f t="shared" si="1"/>
         <v>44054</v>
       </c>
@@ -3768,7 +3835,9 @@
         <f t="shared" si="3"/>
         <v>44091</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="I58" s="6" t="s">
         <v>119</v>
       </c>
@@ -3793,10 +3862,10 @@
     </row>
     <row r="59" spans="1:27" ht="24" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4">
         <v>44051</v>
@@ -3805,7 +3874,7 @@
         <f t="shared" si="0"/>
         <v>44052</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <f t="shared" si="1"/>
         <v>44055</v>
       </c>
@@ -3842,19 +3911,19 @@
     </row>
     <row r="60" spans="1:27" ht="24" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4">
         <v>44052</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="4">
         <f t="shared" si="0"/>
         <v>44053</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <f t="shared" si="1"/>
         <v>44056</v>
       </c>
@@ -3891,17 +3960,19 @@
     </row>
     <row r="61" spans="1:27" ht="24" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="C61" s="4">
         <v>44052</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="4">
         <f t="shared" si="0"/>
         <v>44053</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <f t="shared" si="1"/>
         <v>44056</v>
       </c>
@@ -3937,15 +4008,35 @@
       <c r="AA61" s="6"/>
     </row>
     <row r="62" spans="1:27" ht="24" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="A62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44053</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="0"/>
+        <v>44054</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="1"/>
+        <v>44057</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="2"/>
+        <v>44064</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="3"/>
+        <v>44094</v>
+      </c>
       <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="I62" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
@@ -3965,16 +4056,36 @@
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
     </row>
-    <row r="63" spans="1:27" ht="24" customHeight="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+    <row r="63" spans="1:27" ht="18" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="4">
+        <v>44053</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="0"/>
+        <v>44054</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="1"/>
+        <v>44057</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="2"/>
+        <v>44064</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" si="3"/>
+        <v>44094</v>
+      </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="I63" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
@@ -3995,15 +4106,35 @@
       <c r="AA63" s="6"/>
     </row>
     <row r="64" spans="1:27" ht="24" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="A64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="4">
+        <v>44053</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="0"/>
+        <v>44054</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="1"/>
+        <v>44057</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="2"/>
+        <v>44064</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="3"/>
+        <v>44094</v>
+      </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="I64" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -4024,15 +4155,35 @@
       <c r="AA64" s="6"/>
     </row>
     <row r="65" spans="1:27" ht="24" customHeight="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="A65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="4">
+        <v>44054</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="0"/>
+        <v>44055</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="1"/>
+        <v>44058</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="2"/>
+        <v>44065</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="3"/>
+        <v>44095</v>
+      </c>
       <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="I65" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -4053,15 +4204,35 @@
       <c r="AA65" s="6"/>
     </row>
     <row r="66" spans="1:27" ht="24" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="A66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="4">
+        <v>44054</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" ref="D66:D75" si="4">C66+1</f>
+        <v>44055</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" ref="E66:E75" si="5">D66+3</f>
+        <v>44058</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" ref="F66:F75" si="6">E66+7</f>
+        <v>44065</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" ref="G66:G75" si="7">F66+30</f>
+        <v>44095</v>
+      </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="I66" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -4082,15 +4253,35 @@
       <c r="AA66" s="6"/>
     </row>
     <row r="67" spans="1:27" ht="24" customHeight="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="A67" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="4">
+        <v>44054</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="4"/>
+        <v>44055</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="5"/>
+        <v>44058</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="6"/>
+        <v>44065</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="7"/>
+        <v>44095</v>
+      </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -4111,15 +4302,35 @@
       <c r="AA67" s="6"/>
     </row>
     <row r="68" spans="1:27" ht="24" customHeight="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="A68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="4">
+        <v>44055</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="4"/>
+        <v>44056</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="5"/>
+        <v>44059</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="6"/>
+        <v>44066</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="7"/>
+        <v>44096</v>
+      </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="I68" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -4140,15 +4351,35 @@
       <c r="AA68" s="6"/>
     </row>
     <row r="69" spans="1:27" ht="24" customHeight="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="A69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="4">
+        <v>44055</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="4"/>
+        <v>44056</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="5"/>
+        <v>44059</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="6"/>
+        <v>44066</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" si="7"/>
+        <v>44096</v>
+      </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -4169,15 +4400,35 @@
       <c r="AA69" s="6"/>
     </row>
     <row r="70" spans="1:27" ht="24" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="A70" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="4">
+        <v>44055</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="4"/>
+        <v>44056</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="5"/>
+        <v>44059</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="6"/>
+        <v>44066</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" si="7"/>
+        <v>44096</v>
+      </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="I70" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -4198,15 +4449,35 @@
       <c r="AA70" s="6"/>
     </row>
     <row r="71" spans="1:27" ht="24" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="A71" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44056</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="4"/>
+        <v>44057</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="5"/>
+        <v>44060</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="6"/>
+        <v>44067</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" si="7"/>
+        <v>44097</v>
+      </c>
       <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="I71" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -4227,15 +4498,35 @@
       <c r="AA71" s="6"/>
     </row>
     <row r="72" spans="1:27" ht="24" customHeight="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="A72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="4">
+        <v>44056</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="4"/>
+        <v>44057</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="5"/>
+        <v>44060</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="6"/>
+        <v>44067</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" si="7"/>
+        <v>44097</v>
+      </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="I72" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -4256,15 +4547,35 @@
       <c r="AA72" s="6"/>
     </row>
     <row r="73" spans="1:27" ht="24" customHeight="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="A73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="4">
+        <v>44056</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="4"/>
+        <v>44057</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" si="5"/>
+        <v>44060</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="6"/>
+        <v>44067</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" si="7"/>
+        <v>44097</v>
+      </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -4285,15 +4596,35 @@
       <c r="AA73" s="6"/>
     </row>
     <row r="74" spans="1:27" ht="24" customHeight="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="A74" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="4">
+        <v>44057</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="4"/>
+        <v>44058</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="5"/>
+        <v>44061</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="6"/>
+        <v>44068</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" si="7"/>
+        <v>44098</v>
+      </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="I74" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -4314,15 +4645,35 @@
       <c r="AA74" s="6"/>
     </row>
     <row r="75" spans="1:27" ht="24" customHeight="1">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="A75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="4">
+        <v>44057</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="4"/>
+        <v>44058</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="5"/>
+        <v>44061</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="6"/>
+        <v>44068</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" si="7"/>
+        <v>44098</v>
+      </c>
       <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="I75" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -8025,98 +8376,83 @@
       <c r="Z202" s="6"/>
       <c r="AA202" s="6"/>
     </row>
-    <row r="203" spans="1:27" ht="24" customHeight="1">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-      <c r="I203" s="6"/>
-      <c r="J203" s="6"/>
-      <c r="K203" s="6"/>
-      <c r="L203" s="6"/>
-      <c r="M203" s="6"/>
-      <c r="N203" s="6"/>
-      <c r="O203" s="6"/>
-      <c r="P203" s="6"/>
-      <c r="Q203" s="6"/>
-      <c r="R203" s="6"/>
-      <c r="S203" s="6"/>
-      <c r="T203" s="6"/>
-      <c r="U203" s="6"/>
-      <c r="V203" s="6"/>
-      <c r="W203" s="6"/>
-      <c r="X203" s="6"/>
-      <c r="Y203" s="6"/>
-      <c r="Z203" s="6"/>
-      <c r="AA203" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{A8ABA3CA-13C6-4B4B-962D-D1820F56FC4C}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{402938AE-F2FE-9F40-A754-47A154B46E58}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{90FB391A-0EC5-ED40-A3CE-39BAB5429666}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{71EBF475-B82F-BB4E-AA75-A594BBB384D2}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{CFFE9C52-DCDD-EE4A-B6BD-ED7D042C4F12}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{E36B026E-EF27-4D42-8473-84C2AA87DC95}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://leetcode-cn.com/problems/merge-sorted-array/" xr:uid="{8A1B51FE-26DD-E346-9E61-482DFC40736C}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{2B07CE11-E8E9-9342-963F-9244A305F5B3}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{E926AD87-25AD-A248-8C00-FE52EEB12936}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/valid-anagram/" xr:uid="{F4AB2D4F-C0F4-D943-9F9D-DF72D2E4093C}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{4874BDE5-D67E-3B43-A3B9-CE05F25D3557}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{A0FF393D-54D8-1543-BEF5-BBF6CF2BF1AD}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{6F057526-D2A1-1946-9A27-1DFDE58AA4F6}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{0775BC90-E79E-C740-950A-103050D6942B}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://leetcode-cn.com/problems/min-stack/" xr:uid="{DA49D2E4-EA5F-F84C-BF41-6E90B6A8C05B}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{65CA5D8D-F7A6-CC4D-9F0E-23EAE3F6F902}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" xr:uid="{8DAD8187-5DCC-934B-A0E9-249A0179CE91}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/description/" xr:uid="{C103127A-0DCC-F945-A49E-6E85C5F45076}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{81DB0BC2-14F5-D74F-BFA6-AE5C01D2F949}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" xr:uid="{02935222-659C-244D-B05F-3391E6BCFF07}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" xr:uid="{D440D460-B982-D14E-8C38-516FE5F92301}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{C22D1ABF-2532-3145-898E-3D4AD6DDFBB0}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{113F71A5-AD81-FE4E-941B-168B31A42AC5}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{06DE6C5D-7A74-944A-ABEB-79BB78110267}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{7ECADA37-AD76-A747-A593-72BFCF94198A}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://leetcode-cn.com/problems/combinations/" xr:uid="{59D618C2-746A-2E4B-B9E9-FE9DA8B7BEE0}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://leetcode-cn.com/problems/permutations/" xr:uid="{887234D0-6830-2445-8451-F8158B73A242}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://leetcode-cn.com/problems/permutations-ii/" xr:uid="{265E65F4-369F-E64A-9FE5-696ACBAE5830}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{16C6FDAD-9E11-0344-9419-1308DBE70694}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://leetcode-cn.com/problems/majority-element/" xr:uid="{1E218B68-1BE8-1048-ADAE-AA38E831AF4A}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://leetcode-cn.com/problems/lemonade-change/" xr:uid="{08BF8474-0890-A64E-B877-2B96F9FDFB5B}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{E9B864B5-4A18-B248-A3D8-D0C1D24D9864}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://leetcode-cn.com/problems/assign-cookies/description/" xr:uid="{BC686761-8ED6-A442-80C7-27B608EF012F}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://leetcode-cn.com/problems/walking-robot-simulation/" xr:uid="{E03E6D74-931A-AF45-BE99-7460E190A694}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://leetcode-cn.com/problems/powx-n/" xr:uid="{78FF0458-A1CB-4449-BAA9-7647907A0A0F}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://leetcode-cn.com/problems/subsets/" xr:uid="{C5992C41-34DE-BD48-A947-B1430E7A6329}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/" xr:uid="{52FBDBE4-B9BB-B44C-A3FC-3736832F6D16}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://leetcode-cn.com/problems/word-ladder/" xr:uid="{FE647CA3-31BF-0845-ADB9-668D17E1027E}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{AF095D86-BDA6-C84E-88A6-5D7C8485984E}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://leetcode-cn.com/problems/jump-game/" xr:uid="{2DAE0899-55D2-964E-937E-A2004F6E8C1A}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" xr:uid="{5523E825-E4C2-EE4F-9370-C0D4F3A30790}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://leetcode-cn.com/problems/search-a-2d-matrix/" xr:uid="{A8444053-6C81-6A48-AE85-A56D4A722E8D}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://leetcode-cn.com/problems/minesweeper/" xr:uid="{DF6DEB83-2DFD-2248-A6C2-17C598598614}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{080BFAAE-1A04-BB4E-AE94-A6EF2F171322}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://leetcode-cn.com/problems/n-queens/" xr:uid="{737CBAC2-56AC-1047-999C-1DC088E37223}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://leetcode-cn.com/problems/jump-game-ii/" xr:uid="{3D1F7EAA-6DB1-394F-9909-3B7A924D99AC}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://leetcode-cn.com/problems/word-ladder-ii/" xr:uid="{BD5B9A29-5ADE-A840-9D5F-68460B776911}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://leetcode-cn.com/problems/minimum-path-sum/" xr:uid="{3301DAE5-5A3B-4745-8E7D-3604B29134BB}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://leetcode-cn.com/problems/decode-ways/" xr:uid="{080CF988-BD01-D643-B9CF-E10F825F2186}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://leetcode-cn.com/problems/maximal-square/" xr:uid="{730743DA-C9E7-1C40-A72C-C5B602C53EE8}"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://leetcode-cn.com/problems/task-scheduler/" xr:uid="{1BA71792-B504-4C46-AFA2-0BC7F732E798}"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://leetcode-cn.com/problems/palindromic-substrings/" xr:uid="{5E143243-0BCE-ED49-9824-3D7743E486AB}"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://leetcode-cn.com/problems/longest-valid-parentheses/" xr:uid="{6AC6C84E-DF72-974B-BBEB-8ABF219A5B69}"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://leetcode-cn.com/problems/edit-distance/" xr:uid="{EC466391-DF02-E245-ABDE-C762C933B712}"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://leetcode-cn.com/problems/max-sum-of-rectangle-no-larger-than-k/" xr:uid="{68EA33A9-6B4B-0142-B207-E93BC307C4C4}"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://leetcode-cn.com/problems/frog-jump/" xr:uid="{91E8C2E4-1DE2-8544-819E-A54EF24F53CE}"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://leetcode-cn.com/problems/split-array-largest-sum/" xr:uid="{1FBD877B-2B1C-E84D-B782-10642FE46385}"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://leetcode-cn.com/problems/student-attendance-record-ii/" xr:uid="{0B549403-36BD-794A-8DF3-BD7F01D4D87A}"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://leetcode-cn.com/problems/minimum-window-substring/" xr:uid="{C605AD0F-06FA-AE43-B862-5F8FE58BE94A}"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://leetcode-cn.com/problems/burst-balloons/" xr:uid="{95D41F59-560C-D641-A76D-FC2D8B56CBC4}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{D9139AA4-E4CB-434B-957E-572000D6304F}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode-cn.com/problems/move-zeroes/" xr:uid="{252A3E1F-D3D0-6444-A605-FBB8E8623129}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{A2BD45B3-0CE8-3643-8BFB-FAB527E206AF}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{DAA2E322-9C44-984D-91C1-282D4876F483}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/rotate-array/" xr:uid="{D85E619F-8FF0-2A44-B292-434569E37A0B}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{81F627B6-3197-5647-B470-C75FEB0ACCAB}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://leetcode-cn.com/problems/merge-sorted-array/" xr:uid="{6E472B7D-283D-1C48-91C5-70F589EE3D67}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{02F53EDE-7215-AD4D-9832-43EC8AD39A86}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{9038942C-FC2C-8341-A78C-D480F76483E4}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/valid-anagram/" xr:uid="{B1429A1D-3D11-8445-8420-DFBEA965F40C}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/design-circular-deque/" xr:uid="{AD9119A3-A231-2246-8114-3519D734AF29}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/group-anagrams/" xr:uid="{5D2FFB21-11A4-9E4A-B2C9-97D9F7761ABE}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{79AEC3FB-FD7F-FC4F-BF53-E46659FE176F}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{690F1211-D95B-2C4B-BC4D-E95C9F828216}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://leetcode-cn.com/problems/min-stack/" xr:uid="{FCFE5B00-575E-6F41-BA71-60DB832FC84B}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{C18DF6A2-5B47-7D45-A120-E9C0BAE60927}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" xr:uid="{265B72AD-C101-B54A-BBBA-344BF2F3361D}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/description/" xr:uid="{BBF9B1C9-2588-D743-A51A-2BFE47E193D2}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{5E8EDBF7-DD3E-FC40-A69A-7B2CDFC629F6}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" xr:uid="{57A48EC6-0903-F44E-A2DD-E0AA701A1F24}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" xr:uid="{20F35F33-8964-AD48-8297-D05F46DB6733}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://leetcode-cn.com/problems/chou-shu-lcof/" xr:uid="{57429ABB-E539-FE45-87AC-67259B22126B}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{543751CC-1249-5149-8DFF-FB7C4B28C6C8}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{D84503EB-F6B9-F048-A7E9-8197E0D74767}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{BB0D2401-AFA1-4A4F-B0B6-3CB0DF62CEBC}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://leetcode-cn.com/problems/combinations/" xr:uid="{DC0619D3-317D-9A40-8074-8F332D37FD00}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://leetcode-cn.com/problems/permutations/" xr:uid="{72BD4880-D2D8-5F47-9BFD-566E55E63179}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://leetcode-cn.com/problems/permutations-ii/" xr:uid="{F8A31AF6-9136-B94B-B2F1-756838CADBE1}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{8F72F5C3-632B-FD4C-A45A-EDDBEDF539CB}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://leetcode-cn.com/problems/majority-element/" xr:uid="{BF62E972-FF30-B34D-8661-FF02D2C09548}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://leetcode-cn.com/problems/lemonade-change/" xr:uid="{2BE8AB4C-9807-AB40-8616-94D2957A22B2}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{9445BB92-1777-3744-B58E-2F426FDE4ADA}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://leetcode-cn.com/problems/assign-cookies/description/" xr:uid="{815203AD-A398-FE47-BE00-6CE569F2A526}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://leetcode-cn.com/problems/walking-robot-simulation/" xr:uid="{EC2624F2-A3CD-1146-A2BA-700678F63E15}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://leetcode-cn.com/problems/powx-n/" xr:uid="{C0BB60BC-8969-BA45-96C1-08FD15F4538E}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://leetcode-cn.com/problems/subsets/" xr:uid="{13F86D48-FF7D-A44E-9910-2089FFBA578B}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/" xr:uid="{0385ECCB-AC14-204A-87FF-176C35103A98}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://leetcode-cn.com/problems/word-ladder/" xr:uid="{6E3B4EDE-17D8-2C43-BC15-2C398068006E}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{FCAAB24F-2ED3-6649-8BF0-CC4503C891D5}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://leetcode-cn.com/problems/jump-game/" xr:uid="{DDFD8B33-C136-BE48-8475-9D09D1D6EAB0}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" xr:uid="{52E73225-B297-EF40-BCFB-8361CBF93A94}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://leetcode-cn.com/problems/search-a-2d-matrix/" xr:uid="{66A4FFBF-7B3A-E24C-9073-82B836D3D6A8}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://leetcode-cn.com/problems/minesweeper/" xr:uid="{04882873-DAE7-B041-B8E5-C336D8681100}"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{98BCFC32-BFF3-8041-B48B-0F069DBD1A1F}"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://leetcode-cn.com/problems/n-queens/" xr:uid="{0BA38DA9-376B-3E41-80E3-9530D363970A}"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://leetcode-cn.com/problems/jump-game-ii/" xr:uid="{B952AF19-823D-5048-97A2-54740D6110B2}"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://leetcode-cn.com/problems/word-ladder-ii/" xr:uid="{677B952D-450D-4F49-AA13-D4FD8625C8CB}"/>
+    <hyperlink ref="A49" r:id="rId48" display="https://leetcode-cn.com/problems/minimum-path-sum/" xr:uid="{CAC24B66-DBEA-934F-9432-E7AB19C0A333}"/>
+    <hyperlink ref="A50" r:id="rId49" display="https://leetcode-cn.com/problems/decode-ways/" xr:uid="{7A13DF27-9134-2344-9E73-3CC6623DA8D1}"/>
+    <hyperlink ref="A51" r:id="rId50" display="https://leetcode-cn.com/problems/maximal-square/" xr:uid="{FD2233C5-6EEC-864F-902E-BCC2C918817B}"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://leetcode-cn.com/problems/task-scheduler/" xr:uid="{89D2B8A0-DB07-1841-A006-11F238955B34}"/>
+    <hyperlink ref="A53" r:id="rId52" display="https://leetcode-cn.com/problems/palindromic-substrings/" xr:uid="{12907297-69C5-BF4D-98D2-C4F4CB581A0F}"/>
+    <hyperlink ref="A54" r:id="rId53" display="https://leetcode-cn.com/problems/longest-valid-parentheses/" xr:uid="{95F57899-B461-2941-98E0-CE48F2FEE19A}"/>
+    <hyperlink ref="A55" r:id="rId54" display="https://leetcode-cn.com/problems/edit-distance/" xr:uid="{4988B30E-20F8-A249-93AF-5D96A101E37C}"/>
+    <hyperlink ref="A56" r:id="rId55" display="https://leetcode-cn.com/problems/max-sum-of-rectangle-no-larger-than-k/" xr:uid="{41C06A33-5D29-D943-82FF-44EAA5A2698B}"/>
+    <hyperlink ref="A57" r:id="rId56" display="https://leetcode-cn.com/problems/frog-jump/" xr:uid="{F5464AA5-17B6-AF44-AE39-CF28C942BF87}"/>
+    <hyperlink ref="A58" r:id="rId57" display="https://leetcode-cn.com/problems/split-array-largest-sum/" xr:uid="{B19C3EEC-21FF-1A4C-86FC-5FA2D7AF054D}"/>
+    <hyperlink ref="A59" r:id="rId58" display="https://leetcode-cn.com/problems/student-attendance-record-ii/" xr:uid="{80A8539A-E594-4644-B378-0F35A668BFE4}"/>
+    <hyperlink ref="A60" r:id="rId59" display="https://leetcode-cn.com/problems/minimum-window-substring/" xr:uid="{7C59A1C2-EA11-C04A-A9A8-8E83FC1E8D3F}"/>
+    <hyperlink ref="A61" r:id="rId60" display="https://leetcode-cn.com/problems/burst-balloons/" xr:uid="{20A53900-65F8-7441-A1E8-555028682DEB}"/>
+    <hyperlink ref="A62" r:id="rId61" display="https://leetcode-cn.com/problems/implement-trie-prefix-tree/" xr:uid="{120E6939-842B-2C42-84E0-D340F6B7BC9A}"/>
+    <hyperlink ref="A63" r:id="rId62" display="https://leetcode-cn.com/problems/sudoku-solver/" xr:uid="{3CB2D28F-8C42-6C4A-A74E-01C428CC4673}"/>
+    <hyperlink ref="A64" r:id="rId63" display="https://leetcode-cn.com/problems/friend-circles/" xr:uid="{EF28760E-63D0-7B46-ABEF-B8D3BFB9EE1A}"/>
+    <hyperlink ref="A65" r:id="rId64" display="https://leetcode-cn.com/problems/number-of-1-bits/" xr:uid="{21D4123B-66F0-624B-B75E-181DB195979B}"/>
+    <hyperlink ref="A66" r:id="rId65" display="https://leetcode-cn.com/problems/power-of-two/" xr:uid="{E3640ACF-3CC5-4046-9F16-6EB09CC39AA3}"/>
+    <hyperlink ref="A67" r:id="rId66" display="https://leetcode-cn.com/problems/reverse-bits/" xr:uid="{BE8F0B04-0275-304B-B3B8-AC902FA36AFE}"/>
+    <hyperlink ref="A68" r:id="rId67" display="https://leetcode-cn.com/problems/n-queens-ii/" xr:uid="{3754A098-457B-E046-9C40-2C302E7C83A8}"/>
+    <hyperlink ref="A69" r:id="rId68" display="https://leetcode-cn.com/problems/climbing-stairs/" xr:uid="{6C5BCC7B-A3E2-F146-9FB7-9AE9AA3B8A84}"/>
+    <hyperlink ref="A70" r:id="rId69" display="https://leetcode-cn.com/problems/surrounded-regions/" xr:uid="{A530B407-4DEE-284A-A25E-80E513776EB0}"/>
+    <hyperlink ref="A71" r:id="rId70" display="https://leetcode-cn.com/problems/valid-sudoku/" xr:uid="{5E2C78B1-9AE2-F248-B74A-125347770158}"/>
+    <hyperlink ref="A72" r:id="rId71" display="https://leetcode-cn.com/problems/generate-parentheses/" xr:uid="{9B0FF705-4744-AB45-87C7-D1FBC96E01EE}"/>
+    <hyperlink ref="A73" r:id="rId72" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/" xr:uid="{940CAAA2-2287-AB41-93AD-C0BFA67BB67A}"/>
+    <hyperlink ref="A74" r:id="rId73" display="https://leetcode-cn.com/problems/counting-bits/" xr:uid="{D91CB381-88E7-EB44-8747-44D093210E68}"/>
+    <hyperlink ref="A75" r:id="rId74" display="https://leetcode-cn.com/problems/word-search-ii/" xr:uid="{B1CE000F-D9AB-3B48-9F29-03BC170843FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
